--- a/xgb_test_vs_prediction_results.xlsx
+++ b/xgb_test_vs_prediction_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,354 +456,343 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B2" t="n">
-        <v>4.857571407053999</v>
+        <v>4.668443393714001</v>
       </c>
       <c r="C2" t="n">
-        <v>5.388560771942139</v>
+        <v>5.268950939178467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B3" t="n">
-        <v>4.668443393714001</v>
+        <v>4.80551908429409</v>
       </c>
       <c r="C3" t="n">
-        <v>5.400326728820801</v>
+        <v>5.109382152557373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B4" t="n">
-        <v>4.80551908429409</v>
+        <v>4.998026813941</v>
       </c>
       <c r="C4" t="n">
-        <v>5.429294586181641</v>
+        <v>5.096033573150635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B5" t="n">
-        <v>4.998026813941</v>
+        <v>5.023363338918999</v>
       </c>
       <c r="C5" t="n">
-        <v>5.181073665618896</v>
+        <v>5.078582286834717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B6" t="n">
-        <v>5.023363338918999</v>
+        <v>4.822616096114</v>
       </c>
       <c r="C6" t="n">
-        <v>5.233054161071777</v>
+        <v>5.236500263214111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B7" t="n">
-        <v>4.822616096114</v>
+        <v>4.429607166733</v>
       </c>
       <c r="C7" t="n">
-        <v>5.171838283538818</v>
+        <v>5.326087474822998</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B8" t="n">
-        <v>4.429607166733</v>
+        <v>5.438515029533001</v>
       </c>
       <c r="C8" t="n">
-        <v>5.292101383209229</v>
+        <v>5.318022727966309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B9" t="n">
-        <v>5.438515029533001</v>
+        <v>5.185118522125</v>
       </c>
       <c r="C9" t="n">
-        <v>5.54265022277832</v>
+        <v>5.345104694366455</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B10" t="n">
-        <v>5.185118522125</v>
+        <v>5.692019099825</v>
       </c>
       <c r="C10" t="n">
-        <v>5.464208602905273</v>
+        <v>5.493895053863525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B11" t="n">
-        <v>5.692019099825</v>
+        <v>5.223532946875</v>
       </c>
       <c r="C11" t="n">
-        <v>5.439968585968018</v>
+        <v>5.089605808258057</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B12" t="n">
-        <v>5.223532946875</v>
+        <v>5.418027537625001</v>
       </c>
       <c r="C12" t="n">
-        <v>5.413299083709717</v>
+        <v>5.461669921875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B13" t="n">
-        <v>5.418027537625001</v>
+        <v>5.840909350502</v>
       </c>
       <c r="C13" t="n">
-        <v>5.295527935028076</v>
+        <v>5.184865474700928</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B14" t="n">
-        <v>5.840909350502</v>
+        <v>5.560000497824999</v>
       </c>
       <c r="C14" t="n">
-        <v>5.349605083465576</v>
+        <v>5.043099880218506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B15" t="n">
-        <v>5.560000497824999</v>
+        <v>5.76415121375</v>
       </c>
       <c r="C15" t="n">
-        <v>5.346470355987549</v>
+        <v>5.380143642425537</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B16" t="n">
-        <v>5.76415121375</v>
+        <v>5.407662430525001</v>
       </c>
       <c r="C16" t="n">
-        <v>5.346526622772217</v>
+        <v>5.416504383087158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" t="n">
-        <v>5.407662430525001</v>
+        <v>5.635396825932</v>
       </c>
       <c r="C17" t="n">
-        <v>5.17728328704834</v>
+        <v>5.406580448150635</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B18" t="n">
-        <v>5.635396825932</v>
+        <v>5.904906289082</v>
       </c>
       <c r="C18" t="n">
-        <v>5.237353324890137</v>
+        <v>5.072288513183594</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" t="n">
-        <v>5.904906289082</v>
+        <v>5.754983475486</v>
       </c>
       <c r="C19" t="n">
-        <v>5.087076187133789</v>
+        <v>5.378955364227295</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B20" t="n">
-        <v>5.754983475486</v>
+        <v>6.125426000894999</v>
       </c>
       <c r="C20" t="n">
-        <v>5.277628898620605</v>
+        <v>5.422359943389893</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B21" t="n">
-        <v>6.125426000894999</v>
+        <v>5.406917101506</v>
       </c>
       <c r="C21" t="n">
-        <v>5.509031295776367</v>
+        <v>5.602707386016846</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B22" t="n">
-        <v>5.406917101506</v>
+        <v>6.574890841338999</v>
       </c>
       <c r="C22" t="n">
-        <v>5.594743728637695</v>
+        <v>5.515735626220703</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B23" t="n">
-        <v>6.574890841338999</v>
+        <v>6.405723786886</v>
       </c>
       <c r="C23" t="n">
-        <v>5.472997188568115</v>
+        <v>5.110430717468262</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B24" t="n">
-        <v>6.405723786886</v>
+        <v>6.718604456511001</v>
       </c>
       <c r="C24" t="n">
-        <v>5.306746006011963</v>
+        <v>5.440365791320801</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B25" t="n">
-        <v>6.718604456511001</v>
+        <v>6.05485169882</v>
       </c>
       <c r="C25" t="n">
-        <v>5.368933200836182</v>
+        <v>5.502627372741699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B26" t="n">
-        <v>6.05485169882</v>
+        <v>5.72217794552</v>
       </c>
       <c r="C26" t="n">
-        <v>5.34099817276001</v>
+        <v>5.502748012542725</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B27" t="n">
-        <v>5.72217794552</v>
+        <v>6.699475908175</v>
       </c>
       <c r="C27" t="n">
-        <v>5.359857559204102</v>
+        <v>5.493926048278809</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B28" t="n">
-        <v>6.699475908175</v>
+        <v>5.647809795596</v>
       </c>
       <c r="C28" t="n">
-        <v>5.34623908996582</v>
+        <v>5.407448768615723</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B29" t="n">
-        <v>5.647809795596</v>
+        <v>5.854452414233</v>
       </c>
       <c r="C29" t="n">
-        <v>5.250185489654541</v>
+        <v>5.407989025115967</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B30" t="n">
-        <v>5.854452414233</v>
+        <v>5.460436904519</v>
       </c>
       <c r="C30" t="n">
-        <v>5.250185489654541</v>
+        <v>5.404017448425293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B31" t="n">
-        <v>5.460436904519</v>
+        <v>5.755830683622917</v>
       </c>
       <c r="C31" t="n">
-        <v>5.187831401824951</v>
+        <v>5.613088130950928</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B32" t="n">
-        <v>5.755830683622917</v>
+        <v>5.991571160172917</v>
       </c>
       <c r="C32" t="n">
-        <v>5.323648929595947</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45717</v>
-      </c>
-      <c r="B33" t="n">
-        <v>5.991571160172917</v>
-      </c>
-      <c r="C33" t="n">
-        <v>5.379612445831299</v>
+        <v>5.442866802215576</v>
       </c>
     </row>
   </sheetData>

--- a/xgb_test_vs_prediction_results.xlsx
+++ b/xgb_test_vs_prediction_results.xlsx
@@ -462,7 +462,7 @@
         <v>4.668443393714001</v>
       </c>
       <c r="C2" t="n">
-        <v>5.268950939178467</v>
+        <v>5.641274452209473</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>4.80551908429409</v>
       </c>
       <c r="C3" t="n">
-        <v>5.109382152557373</v>
+        <v>4.998333930969238</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>4.998026813941</v>
       </c>
       <c r="C4" t="n">
-        <v>5.096033573150635</v>
+        <v>5.025818347930908</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>5.023363338918999</v>
       </c>
       <c r="C5" t="n">
-        <v>5.078582286834717</v>
+        <v>4.861635208129883</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>4.822616096114</v>
       </c>
       <c r="C6" t="n">
-        <v>5.236500263214111</v>
+        <v>4.821127891540527</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         <v>4.429607166733</v>
       </c>
       <c r="C7" t="n">
-        <v>5.326087474822998</v>
+        <v>5.402042865753174</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>5.438515029533001</v>
       </c>
       <c r="C8" t="n">
-        <v>5.318022727966309</v>
+        <v>5.098884105682373</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +539,7 @@
         <v>5.185118522125</v>
       </c>
       <c r="C9" t="n">
-        <v>5.345104694366455</v>
+        <v>5.123974800109863</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +550,7 @@
         <v>5.692019099825</v>
       </c>
       <c r="C10" t="n">
-        <v>5.493895053863525</v>
+        <v>5.273571014404297</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         <v>5.223532946875</v>
       </c>
       <c r="C11" t="n">
-        <v>5.089605808258057</v>
+        <v>4.882172584533691</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>5.418027537625001</v>
       </c>
       <c r="C12" t="n">
-        <v>5.461669921875</v>
+        <v>5.235822677612305</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +583,7 @@
         <v>5.840909350502</v>
       </c>
       <c r="C13" t="n">
-        <v>5.184865474700928</v>
+        <v>4.880583763122559</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         <v>5.560000497824999</v>
       </c>
       <c r="C14" t="n">
-        <v>5.043099880218506</v>
+        <v>5.027856349945068</v>
       </c>
     </row>
     <row r="15">
@@ -605,7 +605,7 @@
         <v>5.76415121375</v>
       </c>
       <c r="C15" t="n">
-        <v>5.380143642425537</v>
+        <v>5.113373756408691</v>
       </c>
     </row>
     <row r="16">
@@ -616,7 +616,7 @@
         <v>5.407662430525001</v>
       </c>
       <c r="C16" t="n">
-        <v>5.416504383087158</v>
+        <v>4.987620830535889</v>
       </c>
     </row>
     <row r="17">
@@ -627,7 +627,7 @@
         <v>5.635396825932</v>
       </c>
       <c r="C17" t="n">
-        <v>5.406580448150635</v>
+        <v>4.873868942260742</v>
       </c>
     </row>
     <row r="18">
@@ -638,7 +638,7 @@
         <v>5.904906289082</v>
       </c>
       <c r="C18" t="n">
-        <v>5.072288513183594</v>
+        <v>4.888505935668945</v>
       </c>
     </row>
     <row r="19">
@@ -649,7 +649,7 @@
         <v>5.754983475486</v>
       </c>
       <c r="C19" t="n">
-        <v>5.378955364227295</v>
+        <v>5.317544937133789</v>
       </c>
     </row>
     <row r="20">
@@ -660,7 +660,7 @@
         <v>6.125426000894999</v>
       </c>
       <c r="C20" t="n">
-        <v>5.422359943389893</v>
+        <v>5.417792320251465</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         <v>5.406917101506</v>
       </c>
       <c r="C21" t="n">
-        <v>5.602707386016846</v>
+        <v>5.412067890167236</v>
       </c>
     </row>
     <row r="22">
@@ -682,7 +682,7 @@
         <v>6.574890841338999</v>
       </c>
       <c r="C22" t="n">
-        <v>5.515735626220703</v>
+        <v>5.127096652984619</v>
       </c>
     </row>
     <row r="23">
@@ -693,7 +693,7 @@
         <v>6.405723786886</v>
       </c>
       <c r="C23" t="n">
-        <v>5.110430717468262</v>
+        <v>5.026010036468506</v>
       </c>
     </row>
     <row r="24">
@@ -704,7 +704,7 @@
         <v>6.718604456511001</v>
       </c>
       <c r="C24" t="n">
-        <v>5.440365791320801</v>
+        <v>5.118307590484619</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>6.05485169882</v>
       </c>
       <c r="C25" t="n">
-        <v>5.502627372741699</v>
+        <v>5.123221397399902</v>
       </c>
     </row>
     <row r="26">
@@ -726,7 +726,7 @@
         <v>5.72217794552</v>
       </c>
       <c r="C26" t="n">
-        <v>5.502748012542725</v>
+        <v>5.109638214111328</v>
       </c>
     </row>
     <row r="27">
@@ -737,7 +737,7 @@
         <v>6.699475908175</v>
       </c>
       <c r="C27" t="n">
-        <v>5.493926048278809</v>
+        <v>5.11062479019165</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         <v>5.647809795596</v>
       </c>
       <c r="C28" t="n">
-        <v>5.407448768615723</v>
+        <v>4.963100433349609</v>
       </c>
     </row>
     <row r="29">
@@ -759,7 +759,7 @@
         <v>5.854452414233</v>
       </c>
       <c r="C29" t="n">
-        <v>5.407989025115967</v>
+        <v>4.860276222229004</v>
       </c>
     </row>
     <row r="30">
@@ -770,7 +770,7 @@
         <v>5.460436904519</v>
       </c>
       <c r="C30" t="n">
-        <v>5.404017448425293</v>
+        <v>4.963100433349609</v>
       </c>
     </row>
     <row r="31">
@@ -781,7 +781,7 @@
         <v>5.755830683622917</v>
       </c>
       <c r="C31" t="n">
-        <v>5.613088130950928</v>
+        <v>5.493256092071533</v>
       </c>
     </row>
     <row r="32">
@@ -792,7 +792,7 @@
         <v>5.991571160172917</v>
       </c>
       <c r="C32" t="n">
-        <v>5.442866802215576</v>
+        <v>5.30925464630127</v>
       </c>
     </row>
   </sheetData>

--- a/xgb_test_vs_prediction_results.xlsx
+++ b/xgb_test_vs_prediction_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,343 +456,398 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44805</v>
+        <v>44652</v>
       </c>
       <c r="B2" t="n">
-        <v>4.668443393714001</v>
+        <v>6.704599999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>5.641274452209473</v>
+        <v>4.833069801330566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44835</v>
+        <v>44682</v>
       </c>
       <c r="B3" t="n">
-        <v>4.80551908429409</v>
+        <v>8.163476190476191</v>
       </c>
       <c r="C3" t="n">
-        <v>4.998333930969238</v>
+        <v>4.837417125701904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44866</v>
+        <v>44713</v>
       </c>
       <c r="B4" t="n">
-        <v>4.998026813941</v>
+        <v>7.597904761904761</v>
       </c>
       <c r="C4" t="n">
-        <v>5.025818347930908</v>
+        <v>4.856917858123779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44896</v>
+        <v>44743</v>
       </c>
       <c r="B5" t="n">
-        <v>5.023363338918999</v>
+        <v>7.186949999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>4.861635208129883</v>
+        <v>4.413410663604736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44927</v>
+        <v>44774</v>
       </c>
       <c r="B6" t="n">
-        <v>4.822616096114</v>
+        <v>8.779478260869567</v>
       </c>
       <c r="C6" t="n">
-        <v>4.821127891540527</v>
+        <v>4.411562919616699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44958</v>
+        <v>44805</v>
       </c>
       <c r="B7" t="n">
-        <v>4.429607166733</v>
+        <v>7.757523809523809</v>
       </c>
       <c r="C7" t="n">
-        <v>5.402042865753174</v>
+        <v>4.813495635986328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44986</v>
+        <v>44835</v>
       </c>
       <c r="B8" t="n">
-        <v>5.438515029533001</v>
+        <v>6.084904761904762</v>
       </c>
       <c r="C8" t="n">
-        <v>5.098884105682373</v>
+        <v>4.734267711639404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45017</v>
+        <v>44866</v>
       </c>
       <c r="B9" t="n">
-        <v>5.185118522125</v>
+        <v>6.429761904761905</v>
       </c>
       <c r="C9" t="n">
-        <v>5.123974800109863</v>
+        <v>4.617533206939697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45047</v>
+        <v>44896</v>
       </c>
       <c r="B10" t="n">
-        <v>5.692019099825</v>
+        <v>5.768047619047617</v>
       </c>
       <c r="C10" t="n">
-        <v>5.273571014404297</v>
+        <v>3.86989426612854</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45078</v>
+        <v>44927</v>
       </c>
       <c r="B11" t="n">
-        <v>5.223532946875</v>
+        <v>3.4228</v>
       </c>
       <c r="C11" t="n">
-        <v>4.882172584533691</v>
+        <v>4.314633846282959</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="B12" t="n">
-        <v>5.418027537625001</v>
+        <v>2.437473684210526</v>
       </c>
       <c r="C12" t="n">
-        <v>5.235822677612305</v>
+        <v>3.448765277862549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45139</v>
+        <v>44986</v>
       </c>
       <c r="B13" t="n">
-        <v>5.840909350502</v>
+        <v>2.407782608695652</v>
       </c>
       <c r="C13" t="n">
-        <v>4.880583763122559</v>
+        <v>2.255731582641602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45170</v>
+        <v>45017</v>
       </c>
       <c r="B14" t="n">
-        <v>5.560000497824999</v>
+        <v>2.197263157894737</v>
       </c>
       <c r="C14" t="n">
-        <v>5.027856349945068</v>
+        <v>2.091178894042969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45200</v>
+        <v>45047</v>
       </c>
       <c r="B15" t="n">
-        <v>5.76415121375</v>
+        <v>2.299318181818181</v>
       </c>
       <c r="C15" t="n">
-        <v>5.113373756408691</v>
+        <v>2.199604749679565</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45231</v>
+        <v>45078</v>
       </c>
       <c r="B16" t="n">
-        <v>5.407662430525001</v>
+        <v>2.474619047619047</v>
       </c>
       <c r="C16" t="n">
-        <v>4.987620830535889</v>
+        <v>2.269962072372437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45261</v>
+        <v>45108</v>
       </c>
       <c r="B17" t="n">
-        <v>5.635396825932</v>
+        <v>2.63655</v>
       </c>
       <c r="C17" t="n">
-        <v>4.873868942260742</v>
+        <v>2.537910223007202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45292</v>
+        <v>45139</v>
       </c>
       <c r="B18" t="n">
-        <v>5.904906289082</v>
+        <v>2.645130434782609</v>
       </c>
       <c r="C18" t="n">
-        <v>4.888505935668945</v>
+        <v>2.475393533706665</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45323</v>
+        <v>45170</v>
       </c>
       <c r="B19" t="n">
-        <v>5.754983475486</v>
+        <v>2.69565</v>
       </c>
       <c r="C19" t="n">
-        <v>5.317544937133789</v>
+        <v>2.671053171157837</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45352</v>
+        <v>45200</v>
       </c>
       <c r="B20" t="n">
-        <v>6.125426000894999</v>
+        <v>3.149181818181818</v>
       </c>
       <c r="C20" t="n">
-        <v>5.417792320251465</v>
+        <v>2.671859264373779</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45383</v>
+        <v>45231</v>
       </c>
       <c r="B21" t="n">
-        <v>5.406917101506</v>
+        <v>3.055523809523809</v>
       </c>
       <c r="C21" t="n">
-        <v>5.412067890167236</v>
+        <v>3.113406658172607</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45413</v>
+        <v>45261</v>
       </c>
       <c r="B22" t="n">
-        <v>6.574890841338999</v>
+        <v>2.53885</v>
       </c>
       <c r="C22" t="n">
-        <v>5.127096652984619</v>
+        <v>3.067882537841797</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B23" t="n">
-        <v>6.405723786886</v>
+        <v>2.715</v>
       </c>
       <c r="C23" t="n">
-        <v>5.026010036468506</v>
+        <v>2.373803615570068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B24" t="n">
-        <v>6.718604456511001</v>
+        <v>1.7955</v>
       </c>
       <c r="C24" t="n">
-        <v>5.118307590484619</v>
+        <v>2.605878591537476</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B25" t="n">
-        <v>6.05485169882</v>
+        <v>1.7473</v>
       </c>
       <c r="C25" t="n">
-        <v>5.123221397399902</v>
+        <v>1.92271876335144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B26" t="n">
-        <v>5.72217794552</v>
+        <v>1.791227272727273</v>
       </c>
       <c r="C26" t="n">
-        <v>5.109638214111328</v>
+        <v>1.836468577384949</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B27" t="n">
-        <v>6.699475908175</v>
+        <v>2.418</v>
       </c>
       <c r="C27" t="n">
-        <v>5.11062479019165</v>
+        <v>1.997172355651855</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B28" t="n">
-        <v>5.647809795596</v>
+        <v>2.809578947368421</v>
       </c>
       <c r="C28" t="n">
-        <v>4.963100433349609</v>
+        <v>2.319653272628784</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B29" t="n">
-        <v>5.854452414233</v>
+        <v>2.208681818181818</v>
       </c>
       <c r="C29" t="n">
-        <v>4.860276222229004</v>
+        <v>2.780210256576538</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B30" t="n">
-        <v>5.460436904519</v>
+        <v>2.086782608695652</v>
       </c>
       <c r="C30" t="n">
-        <v>4.963100433349609</v>
+        <v>2.269118547439575</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B31" t="n">
-        <v>5.755830683622917</v>
+        <v>2.409250000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>5.493256092071533</v>
+        <v>2.346853017807007</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.576956521739131</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.295066356658936</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.982</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.532831192016602</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.406619047619048</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.603587865829468</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.721380952380952</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.969963312149048</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.740947368421053</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.936691284179688</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>45717</v>
       </c>
-      <c r="B32" t="n">
-        <v>5.991571160172917</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5.30925464630127</v>
+      <c r="B37" t="n">
+        <v>4.137476190476191</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.301484107971191</v>
       </c>
     </row>
   </sheetData>

--- a/xgb_test_vs_prediction_results.xlsx
+++ b/xgb_test_vs_prediction_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,398 +456,409 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>6.704599999999999</v>
+        <v>7.597904761904761</v>
       </c>
       <c r="C2" t="n">
-        <v>4.833069801330566</v>
+        <v>7.284552574157715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44682</v>
+        <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>8.163476190476191</v>
+        <v>7.186949999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>4.837417125701904</v>
+        <v>6.071340560913086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44713</v>
+        <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>7.597904761904761</v>
+        <v>8.779478260869567</v>
       </c>
       <c r="C4" t="n">
-        <v>4.856917858123779</v>
+        <v>6.072671413421631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>7.186949999999999</v>
+        <v>7.757523809523809</v>
       </c>
       <c r="C5" t="n">
-        <v>4.413410663604736</v>
+        <v>7.109158992767334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>8.779478260869567</v>
+        <v>6.084904761904762</v>
       </c>
       <c r="C6" t="n">
-        <v>4.411562919616699</v>
+        <v>6.213035583496094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>7.757523809523809</v>
+        <v>6.429761904761905</v>
       </c>
       <c r="C7" t="n">
-        <v>4.813495635986328</v>
+        <v>4.075860023498535</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>6.084904761904762</v>
+        <v>5.768047619047617</v>
       </c>
       <c r="C8" t="n">
-        <v>4.734267711639404</v>
+        <v>5.567882061004639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>6.429761904761905</v>
+        <v>3.4228</v>
       </c>
       <c r="C9" t="n">
-        <v>4.617533206939697</v>
+        <v>3.801314353942871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>5.768047619047617</v>
+        <v>2.437473684210526</v>
       </c>
       <c r="C10" t="n">
-        <v>3.86989426612854</v>
+        <v>3.741784334182739</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>3.4228</v>
+        <v>2.407782608695652</v>
       </c>
       <c r="C11" t="n">
-        <v>4.314633846282959</v>
+        <v>2.086360692977905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44958</v>
+        <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>2.437473684210526</v>
+        <v>2.197263157894737</v>
       </c>
       <c r="C12" t="n">
-        <v>3.448765277862549</v>
+        <v>2.105981588363647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>2.407782608695652</v>
+        <v>2.299318181818181</v>
       </c>
       <c r="C13" t="n">
-        <v>2.255731582641602</v>
+        <v>1.92888069152832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>2.197263157894737</v>
+        <v>2.474619047619047</v>
       </c>
       <c r="C14" t="n">
-        <v>2.091178894042969</v>
+        <v>2.010726451873779</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>2.299318181818181</v>
+        <v>2.63655</v>
       </c>
       <c r="C15" t="n">
-        <v>2.199604749679565</v>
+        <v>2.294023752212524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>2.474619047619047</v>
+        <v>2.645130434782609</v>
       </c>
       <c r="C16" t="n">
-        <v>2.269962072372437</v>
+        <v>2.311826705932617</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>2.63655</v>
+        <v>2.69565</v>
       </c>
       <c r="C17" t="n">
-        <v>2.537910223007202</v>
+        <v>2.424980640411377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>2.645130434782609</v>
+        <v>3.149181818181818</v>
       </c>
       <c r="C18" t="n">
-        <v>2.475393533706665</v>
+        <v>2.446173429489136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>2.69565</v>
+        <v>3.055523809523809</v>
       </c>
       <c r="C19" t="n">
-        <v>2.671053171157837</v>
+        <v>2.876813411712646</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>3.149181818181818</v>
+        <v>2.53885</v>
       </c>
       <c r="C20" t="n">
-        <v>2.671859264373779</v>
+        <v>2.879498481750488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>3.055523809523809</v>
+        <v>2.715</v>
       </c>
       <c r="C21" t="n">
-        <v>3.113406658172607</v>
+        <v>2.49435019493103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>2.53885</v>
+        <v>1.7955</v>
       </c>
       <c r="C22" t="n">
-        <v>3.067882537841797</v>
+        <v>2.515231847763062</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>2.715</v>
+        <v>1.7473</v>
       </c>
       <c r="C23" t="n">
-        <v>2.373803615570068</v>
+        <v>1.766583204269409</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>1.7955</v>
+        <v>1.791227272727273</v>
       </c>
       <c r="C24" t="n">
-        <v>2.605878591537476</v>
+        <v>1.799374341964722</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>1.7473</v>
+        <v>2.418</v>
       </c>
       <c r="C25" t="n">
-        <v>1.92271876335144</v>
+        <v>1.848229765892029</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>1.791227272727273</v>
+        <v>2.809578947368421</v>
       </c>
       <c r="C26" t="n">
-        <v>1.836468577384949</v>
+        <v>2.015389680862427</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>2.418</v>
+        <v>2.208681818181818</v>
       </c>
       <c r="C27" t="n">
-        <v>1.997172355651855</v>
+        <v>2.792648553848267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>2.809578947368421</v>
+        <v>2.086782608695652</v>
       </c>
       <c r="C28" t="n">
-        <v>2.319653272628784</v>
+        <v>2.164881467819214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>2.208681818181818</v>
+        <v>2.409250000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>2.780210256576538</v>
+        <v>2.064095258712769</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>2.086782608695652</v>
+        <v>2.576956521739131</v>
       </c>
       <c r="C30" t="n">
-        <v>2.269118547439575</v>
+        <v>2.078608751296997</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>2.409250000000001</v>
+        <v>2.982</v>
       </c>
       <c r="C31" t="n">
-        <v>2.346853017807007</v>
+        <v>2.265103101730347</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>2.576956521739131</v>
+        <v>3.406619047619048</v>
       </c>
       <c r="C32" t="n">
-        <v>2.295066356658936</v>
+        <v>2.626777648925781</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>2.982</v>
+        <v>3.721380952380952</v>
       </c>
       <c r="C33" t="n">
-        <v>2.532831192016602</v>
+        <v>3.071043729782104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>3.406619047619048</v>
+        <v>3.740947368421053</v>
       </c>
       <c r="C34" t="n">
-        <v>2.603587865829468</v>
+        <v>4.086101055145264</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>3.721380952380952</v>
+        <v>4.137476190476191</v>
       </c>
       <c r="C35" t="n">
-        <v>2.969963312149048</v>
+        <v>3.667343616485596</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>3.740947368421053</v>
+        <v>3.4</v>
       </c>
       <c r="C36" t="n">
-        <v>3.936691284179688</v>
+        <v>3.785993576049805</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>4.137476190476191</v>
+        <v>3.5</v>
       </c>
       <c r="C37" t="n">
-        <v>4.301484107971191</v>
+        <v>3.004053115844727</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.942317247390747</v>
       </c>
     </row>
   </sheetData>
